--- a/Code/group-project/Group.xlsx
+++ b/Code/group-project/Group.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Work\Coding\Class\prod-sup-2564-2\Code\group-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465B709A-6566-4A69-8F8F-E8ECEE7BC53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9908BF40-270C-41E6-846A-FE3B76C302B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31065" yWindow="885" windowWidth="21600" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-300" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sec 001-801" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="214">
   <si>
     <t>Sec 001-801</t>
   </si>
@@ -212,6 +212,9 @@
     <t>อมรรัตน์ วงศ์ซื่อ</t>
   </si>
   <si>
+    <t>มอย</t>
+  </si>
+  <si>
     <t>สถาพร ตาบู้</t>
   </si>
   <si>
@@ -434,6 +437,9 @@
     <t>ณัฏฐ์นิชา อนันต์สลุง</t>
   </si>
   <si>
+    <t>S3-G10</t>
+  </si>
+  <si>
     <t>ธัญชนก บัวองค์</t>
   </si>
   <si>
@@ -611,6 +617,9 @@
     <t>พิชญา นิเกตธนาวรัตน์</t>
   </si>
   <si>
+    <t>S4-G10</t>
+  </si>
+  <si>
     <t>นิภาภรณ์ บุญศรี</t>
   </si>
   <si>
@@ -629,6 +638,9 @@
     <t>อัครเชษฐ์ แก้วนวล</t>
   </si>
   <si>
+    <t>S4-G11</t>
+  </si>
+  <si>
     <t>ทัตพงศ์ วงศ์ประเสริฐ</t>
   </si>
   <si>
@@ -644,16 +656,28 @@
     <t>พลวัฒน์ มาลัย</t>
   </si>
   <si>
-    <t>มอย</t>
-  </si>
-  <si>
-    <t>S3-G10</t>
-  </si>
-  <si>
-    <t>S4-G10</t>
-  </si>
-  <si>
-    <t>S4-G11</t>
+    <t>นายพศวัต เปี้ยปลูก</t>
+  </si>
+  <si>
+    <t>S3-G11</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ชญานิษฐ์ ประมวลการ</t>
+  </si>
+  <si>
+    <t>นรุตม์ชัย ชัยนลินพัฒน์</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> พงศกร โตสุวรรณ์</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> รัชชัย ใจหาญ</t>
+  </si>
+  <si>
+    <t>สิรภพ แก้วทอง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ฮารีส งามสมชาติ </t>
   </si>
 </sst>
 </file>
@@ -828,7 +852,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -839,21 +863,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1150,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,8 +1639,12 @@
       <c r="L11" s="10">
         <v>630612072</v>
       </c>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
+      <c r="M11" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="N11" s="10">
+        <v>630610367</v>
+      </c>
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
     </row>
@@ -1647,19 +1675,19 @@
         <v>630610439</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>202</v>
+        <v>58</v>
       </c>
       <c r="J12" s="10">
         <v>630612077</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L12" s="10">
         <v>630612085</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N12" s="10">
         <v>630612092</v>
@@ -1676,37 +1704,37 @@
         <v>S1-G10</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" s="10">
         <v>630610290</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F13" s="10">
         <v>630610338</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H13" s="10">
         <v>630610342</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J13" s="10">
         <v>630610343</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L13" s="10">
         <v>630610344</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N13" s="10">
         <v>630610353</v>
@@ -1723,31 +1751,31 @@
         <v>S1-G11</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D14" s="10">
         <v>630610302</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F14" s="10">
         <v>630610305</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H14" s="10">
         <v>630610309</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J14" s="10">
         <v>630610326</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L14" s="10">
         <v>630610365</v>
@@ -1766,31 +1794,31 @@
         <v>S1-G12</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D15" s="10">
         <v>630610331</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F15" s="10">
         <v>630610333</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H15" s="10">
         <v>630610334</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J15" s="10">
         <v>630610337</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L15" s="10">
         <v>630610432</v>
@@ -1819,10 +1847,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40570B7-F6FB-427C-AFE0-73CFADF66485}">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="E1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1830,12 +1858,12 @@
     <col min="1" max="1" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" style="1" customWidth="1"/>
     <col min="3" max="14" width="14.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1942,37 +1970,37 @@
         <v>S3-G01</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D4" s="10">
         <v>640610283</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F4" s="10">
         <v>630612170</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H4" s="10">
         <v>630610403</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J4" s="10">
         <v>630610393</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L4" s="10">
         <v>630610296</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N4" s="10">
         <v>630610433</v>
@@ -1990,37 +2018,37 @@
         <v>S3-G02</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D5" s="10">
         <v>630610424</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F5" s="10">
         <v>630610405</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H5" s="10">
         <v>630610406</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J5" s="10">
         <v>630610407</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L5" s="10">
         <v>630610411</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N5" s="10">
         <v>630610412</v>
@@ -2038,37 +2066,37 @@
         <v>S3-G03</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D6" s="10">
         <v>630610330</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F6" s="10">
         <v>630610355</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H6" s="10">
         <v>630610372</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J6" s="10">
         <v>630610418</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L6" s="10">
         <v>630610434</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N6" s="10">
         <v>640612176</v>
@@ -2086,37 +2114,37 @@
         <v>S3-G04</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D7" s="10">
         <v>630610285</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F7" s="10">
         <v>630610339</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H7" s="10">
         <v>630610350</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J7" s="10">
         <v>630610370</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L7" s="10">
         <v>630610421</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N7" s="10">
         <v>630610423</v>
@@ -2134,37 +2162,37 @@
         <v>S3-G05</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D8" s="10">
         <v>630610335</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F8" s="10">
         <v>630610347</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H8" s="10">
         <v>630610395</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J8" s="10">
         <v>630610396</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L8" s="10">
         <v>630610397</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N8" s="10">
         <v>630610402</v>
@@ -2182,37 +2210,37 @@
         <v>S3-G06</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D9" s="18">
         <v>630610173</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F9" s="10">
         <v>630610298</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H9" s="10">
         <v>630610306</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J9" s="10">
         <v>630610311</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L9" s="10">
         <v>630610386</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N9" s="10">
         <v>630610394</v>
@@ -2230,37 +2258,37 @@
         <v>S3-G07</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D10" s="10">
         <v>630610316</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F10" s="10">
         <v>630610319</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H10" s="10">
         <v>630610320</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J10" s="10">
         <v>630610381</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L10" s="10">
         <v>630610383</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N10" s="10">
         <v>630610390</v>
@@ -2278,43 +2306,43 @@
         <v>S3-G08</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D11" s="10">
         <v>630612080</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F11" s="10">
         <v>630612171</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H11" s="10">
         <v>630612058</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J11" s="10">
         <v>640612163</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L11" s="10">
         <v>630612068</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N11" s="10">
         <v>630610291</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P11" s="15">
         <v>630612076</v>
@@ -2330,37 +2358,37 @@
         <v>S3-G09</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D12" s="10">
         <v>630610416</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F12" s="10">
         <v>630610312</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H12" s="10">
         <v>630610314</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J12" s="10">
         <v>630610332</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L12" s="10">
         <v>630612040</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N12" s="10">
         <v>630612049</v>
@@ -2374,46 +2402,90 @@
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D13" s="10">
         <v>630610340</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F13" s="10">
         <v>630612043</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H13" s="10">
         <v>630612075</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J13" s="10">
         <v>630612079</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L13" s="10">
         <v>630612088</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N13" s="10">
         <v>630612093</v>
       </c>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D14" s="1">
+        <v>630610303</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F14" s="1">
+        <v>630610346</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H14" s="1">
+        <v>630610360</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J14" s="1">
+        <v>630610392</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L14" s="1">
+        <v>630610425</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N14" s="1">
+        <v>630610444</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2436,8 +2508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1976FD56-599B-460A-82F0-7AB65F9441D8}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2451,7 +2523,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2548,37 +2620,37 @@
         <v>S4-G01</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D4" s="10">
         <v>630610356</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F4" s="10">
         <v>630610351</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H4" s="10">
         <v>630610341</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J4" s="10">
         <v>630612046</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L4" s="10">
         <v>630612046</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N4" s="10">
         <v>630612074</v>
@@ -2593,31 +2665,31 @@
         <v>S4-G02</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D5" s="10">
         <v>630610318</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F5" s="10">
         <v>630610368</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H5" s="10">
         <v>630610410</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J5" s="10">
         <v>630610414</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L5" s="10">
         <v>630610413</v>
@@ -2634,37 +2706,37 @@
         <v>S4-G03</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D6" s="10">
         <v>630610324</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F6" s="10">
         <v>630610328</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H6" s="10">
         <v>630610329</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J6" s="10">
         <v>630610376</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L6" s="10">
         <v>630610382</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N6" s="10">
         <v>630610384</v>
@@ -2679,37 +2751,37 @@
         <v>S4-G04</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D7" s="10">
         <v>630610299</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F7" s="10">
         <v>630610301</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H7" s="10">
         <v>630610315</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J7" s="10">
         <v>630612059</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L7" s="10">
         <v>630612154</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N7" s="10">
         <v>630610430</v>
@@ -2724,37 +2796,37 @@
         <v>S4-G05</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D8" s="10">
         <v>630610345</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F8" s="10">
         <v>630610377</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H8" s="10">
         <v>630610378</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J8" s="10">
         <v>630610379</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L8" s="10">
         <v>630610380</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="N8" s="10">
         <v>630610391</v>
@@ -2769,31 +2841,31 @@
         <v>S4-G06</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D9" s="10">
         <v>630610373</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F9" s="12">
         <v>630610375</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H9" s="10">
         <v>630610415</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J9" s="10">
         <v>630610428</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L9" s="10">
         <v>640612046</v>
@@ -2810,37 +2882,37 @@
         <v>S4-G07</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D10" s="12">
         <v>630610293</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F10" s="10">
         <v>630610294</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H10" s="13">
         <v>630610295</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J10" s="12">
         <v>630610431</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L10" s="13">
         <v>630610436</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="N10" s="13">
         <v>630610440</v>
@@ -2855,37 +2927,37 @@
         <v>S4-G08</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D11" s="10">
         <v>630610354</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F11" s="10">
         <v>630610398</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H11" s="10">
         <v>630610401</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J11" s="10">
         <v>630610400</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L11" s="10">
         <v>630610387</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N11" s="10">
         <v>630610420</v>
@@ -2900,37 +2972,37 @@
         <v>S4-G09</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D12" s="10">
         <v>630610321</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F12" s="10">
         <v>630610322</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H12" s="10">
         <v>630610327</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="J12" s="10">
         <v>630610348</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L12" s="10">
         <v>630610366</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N12" s="10">
         <v>630610374</v>
@@ -2941,40 +3013,40 @@
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D13" s="10">
         <v>630612064</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F13" s="10">
         <v>630612060</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H13" s="10">
         <v>630612048</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="J13" s="10">
         <v>630612044</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L13" s="10">
         <v>630612069</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="N13" s="10">
         <v>630612176</v>
@@ -2985,34 +3057,34 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D14" s="10">
         <v>630612157</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F14" s="10">
         <v>630612158</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H14" s="10">
         <v>630612167</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="J14" s="10">
         <v>630612084</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L14" s="10">
         <v>630612165</v>
